--- a/biology/Zoologie/Devario_devario/Devario_devario.xlsx
+++ b/biology/Zoologie/Devario_devario/Devario_devario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Devario devario, le Danio du Bengale ou Danio Sind[réf. nécessaire], est une espèce subtropicale de poissons d'eau douce de la famille des Cyprinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Devario devario a été décrite pour la première fois en 1822 par le botaniste et zoologiste écossais Francis Buchanan-Hamilton[3] (1762-1829) sous le protonyme Cyprinus devario[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Devario devario a été décrite pour la première fois en 1822 par le botaniste et zoologiste écossais Francis Buchanan-Hamilton (1762-1829) sous le protonyme Cyprinus devario,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Devario devario est originaire du Pakistan, de l'Inde, du Népal, du Bangladesh et de l'Afghanistan[6]. Ce poisson se rencontre dans les rivières, les étangs, les mares et les prés inondés[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Devario devario est originaire du Pakistan, de l'Inde, du Népal, du Bangladesh et de l'Afghanistan. Ce poisson se rencontre dans les rivières, les étangs, les mares et les prés inondés.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille peut atteindre une longueur maximale d'environ 10 cm[6]. C'est une espèce ovipare.
-Il préfère l'eau présentant un pH compris entre 6,0 et 8,0, une dureté de 5,0 à 19,0 dGH et une température de 15 à 26 °C[6]. Son alimentation se compose de vers annélides, de petits crustacés et d'insectes[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille peut atteindre une longueur maximale d'environ 10 cm. C'est une espèce ovipare.
+Il préfère l'eau présentant un pH compris entre 6,0 et 8,0, une dureté de 5,0 à 19,0 dGH et une température de 15 à 26 °C. Son alimentation se compose de vers annélides, de petits crustacés et d'insectes.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson est parfois gardé dans des aquariums communautaires par des amateurs d'aquariophilie[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson est parfois gardé dans des aquariums communautaires par des amateurs d'aquariophilie.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Francis Hamilton (formerly Buchanan,) (ill. Haludar), An account of the fishes found in the river Ganges and its branches, Édimbourg, Inconnu, 1822, 428 p. (ISBN 1-17-504730-9, OCLC 2844620, LCCN 05025790, DOI 10.5962/BHL.TITLE.59540, lire en ligne)</t>
         </is>
